--- a/BackUp Kft. ÁRLISTA (Saját hálózat).xlsx
+++ b/BackUp Kft. ÁRLISTA (Saját hálózat).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df3f1543738794d3/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIZSGAREMEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365BC2E7-BE3D-4055-9A9C-8BD5FC4C2A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53781E2-7940-436B-AD8B-EABCDF1B2EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69C008BB-116E-4B9E-837F-96DF98BB6AE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Helyszín / Szerepkör</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Összesen:</t>
   </si>
   <si>
-    <t>C9500-16X-A (3 db)</t>
-  </si>
-  <si>
     <t>4 500 000 Ft x3</t>
   </si>
   <si>
@@ -101,12 +98,6 @@
     <t>400 000 Ft</t>
   </si>
   <si>
-    <t>210 000 Ft</t>
-  </si>
-  <si>
-    <t>90 000 Ft</t>
-  </si>
-  <si>
     <t>Központ WLC</t>
   </si>
   <si>
@@ -147,13 +138,115 @@
   </si>
   <si>
     <t>900.000 Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9500-16X-A x3 </t>
+  </si>
+  <si>
+    <t>210 000 Ft x3</t>
+  </si>
+  <si>
+    <t>90 000 Ft x3</t>
+  </si>
+  <si>
+    <t>Eszköz megnevezése</t>
+  </si>
+  <si>
+    <t>Mennyiség (db)</t>
+  </si>
+  <si>
+    <t>Becsült Nettó Egységár (Ft/db)</t>
+  </si>
+  <si>
+    <t>Becsült Nettó Összeg (Ft)</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex XE4 SFF</t>
+  </si>
+  <si>
+    <t>290 000 Ft</t>
+  </si>
+  <si>
+    <t>3 190 000 Ft</t>
+  </si>
+  <si>
+    <t>HP LaserJet Pro 3302sdw</t>
+  </si>
+  <si>
+    <t>135 000 Ft</t>
+  </si>
+  <si>
+    <t>270 000 Ft</t>
+  </si>
+  <si>
+    <t>Samsung LS24D310EAUXEN 24"</t>
+  </si>
+  <si>
+    <t>33 000 Ft</t>
+  </si>
+  <si>
+    <t>264 000 Ft</t>
+  </si>
+  <si>
+    <t>Dell KM3322W HU (580-AKGG)</t>
+  </si>
+  <si>
+    <t>9 900 Ft</t>
+  </si>
+  <si>
+    <t>79 200 Ft</t>
+  </si>
+  <si>
+    <t>Összesen</t>
+  </si>
+  <si>
+    <t>3 803 200 Ft</t>
+  </si>
+  <si>
+    <t>Szerverek:</t>
+  </si>
+  <si>
+    <t>25 000 000 Ft</t>
+  </si>
+  <si>
+    <t>50 000 000 Ft</t>
+  </si>
+  <si>
+    <t>7 000 000 Ft</t>
+  </si>
+  <si>
+    <t>Windows Server Standard (16-magos)</t>
+  </si>
+  <si>
+    <t>Windows Server 2022 User CAL</t>
+  </si>
+  <si>
+    <t>159 500 Ft</t>
+  </si>
+  <si>
+    <t>310 000 Ft</t>
+  </si>
+  <si>
+    <t>14 500 Ft</t>
+  </si>
+  <si>
+    <t>57 469 000 Ft</t>
+  </si>
+  <si>
+    <t>219 600Ft</t>
+  </si>
+  <si>
+    <t>Kábelek:</t>
+  </si>
+  <si>
+    <t>133 583 200 Ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +269,53 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE6E8F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,32 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -282,17 +389,6 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -334,50 +430,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,179 +842,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A21D00-02D7-4444-AE06-8BB28B5DDC0D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="10">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>